--- a/Output_testing/R1_201907/Country/HKD/MN/SEYCHELLES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SEYCHELLES_201907_HKD_MN.xlsx
@@ -544,8 +544,10 @@
       <c r="C7" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.461612</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>0.678496</v>
@@ -553,8 +555,10 @@
       <c r="F7" s="8" t="n">
         <v>1.962574</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.394444</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>46.98404720847811</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SEYCHELLES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SEYCHELLES_201907_HKD_MN.xlsx
@@ -814,136 +814,505 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>18.730382</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>56.12917490057578</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>5.84858</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>34.95194763082404</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4.534534</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>15.45579880896657</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2.906104</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>35.16800228087676</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>96.32335853604492</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1.590309</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.503913237884776</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>8.323760999999999</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>28.37124506066607</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.135624</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.7426697125149</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.4026354582432627</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.334024414454568</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.1161263903681152</v>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.771278935568256</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.461528355772958</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.928489239537059</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.623919</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.126605851249899</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.093211838244112</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>36.61910110171198</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.39394205645431</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.7517150632616519</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.2187245845703646</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.632593932175622</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.5415620721473835</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.291073878149562</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.2840614433014007</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.202727080534626</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.69602</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.085757157237837</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.790644</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.725001228097288</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0.600854</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.047989614271896</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.116310798017641</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-1.647633960967043</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.065482621946761</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.914726183309088</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.443126887288175</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.575558580643116</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-8.07945132116542</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.875386</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>6.392186871937132</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.459917354521801</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>VENEERS, PLYWOOD, PARTICLE BOARD, AND OTHER WOOD, WORKED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.318640115820924</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.560992211771542</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.181922607879014</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.448408898468915</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>15.30272636090089</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>12.213896</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>36.60127726180079</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>6.866991</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>41.03811691271043</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>12.428532</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>42.36221187950137</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.883193</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>22.78932058843425</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-63.07972902553414</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1344,597 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>74.45906952158956</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>31.04985143611753</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>25.26187547577824</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>84.71747573800084</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>36.95317174730941</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.048961231901146</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>2.98113599792925</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>12.96812728803075</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-12.57114533303707</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.7664009809932557</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.314396973968421</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>23.47447640009359</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>63.13478635098807</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.408284</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>71.7569885262925</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.066454078316855</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1966,507 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>18.730382</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>56.91650588765391</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>5.84858</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>36.42906945788979</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4.534534</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>16.56381253623364</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2.906104</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>36.93083468197221</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>96.32335853604492</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.590309</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.905562892275947</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>8.323760999999999</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>30.40515669314921</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.135624</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>14.43153521170612</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.4082832763936785</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.390402290767579</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.1244513974555004</v>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.060570247088433</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.3994679311657977</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7834836713920516</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.2344047732937164</v>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.814681451179908</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.5491586313625005</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.345636600259139</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.3044255786305079</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.363267080058635</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.69602</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.115014334887824</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.790644</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.924686879971517</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.600854</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.194808334802678</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.272519092215129</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-1.647633960967043</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.080428280526954</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.963256131878092</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.546583487692151</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.588649575647362</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-12.02221665558137</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.875386</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>6.850437583459968</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.583223250089433</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>VENEERS, PLYWOOD, PARTICLE BOARD, AND OTHER WOOD, WORKED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.337136846368436</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.669223590889799</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.266653684563158</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.571137920802334</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>15.30272636090089</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.997719547153339</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.500198</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.827130616508553</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.363819243631216</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>70.33882783882784</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>12.239998</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>37.19400481164089</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>6.195665</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>38.59095893752274</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>10.589679</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>38.68213531421092</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.732745</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>22.01976224560922</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-55.09836796251859</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2498,505 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1.284869647932508</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1.475023</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>12.118355793979</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>10.156119</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>51.76534791961398</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>5.836613</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>40.99788745379354</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-29.1407199328583</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>5.748009</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>35.2478287021982</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.708627</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>38.68469663668701</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>3.027448</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>15.4307860146715</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>3.25962</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.89641850541307</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>49.39399008659904</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.8658</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.11315853815637</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.779743</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.974320080621699</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.897577</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.32907429033023</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>143.3592863289571</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1.024715</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>6.283737340803229</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1.756209</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>14.4284973933207</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>0.565214</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.880874018809419</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.649269</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>11.58489432878805</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>191.7954969268277</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FEEDING STUFF FOR ANIMALS (NOT INCLUDING UNMILLED CEREALS)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.542373</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>9.458109633943778</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.792799</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>14.72911008783576</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2.621624</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>13.36231669542372</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.74404</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.226330438752843</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-32.93287518613732</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.59433</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.174728468447902</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.464260456272249</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.173842374115662</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>0.624808</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.184622344712402</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.005213757013285</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-72.57092256354328</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2395571922918447</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.41443134224829</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>25.53191489361701</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1161372246423867</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.2328682687833104</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.1225382163647698</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>7.54157</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>46.24626849151364</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.1729</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>9.636201951263116</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.796792</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.158179716009537</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-99.86750127551629</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
